--- a/04-Poisson equation/poisson2D.xlsx
+++ b/04-Poisson equation/poisson2D.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastien\Sync\!partage\MEC6215\DEVOIRS (new)\Elliptique\POISSON2D_ARRAYFIRE\statement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\private\Namvar\ArrayFire-Programming\04-Poisson equation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2D3962-CE99-4394-9DE4-76D82CCCCCB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{908EE9AC-BFFE-4FB4-AA60-768EC5F90ACE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="17376" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1067,28 +1066,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2B4EF2-974B-471C-8DBB-47B4450BA879}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="3:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="3:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="49" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +1102,7 @@
       </c>
       <c r="K5" s="40"/>
     </row>
-    <row r="6" spans="3:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="52"/>
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
@@ -1114,7 +1113,7 @@
       <c r="J6" s="41"/>
       <c r="K6" s="42"/>
     </row>
-    <row r="7" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="55"/>
       <c r="D7" s="56"/>
       <c r="E7" s="56"/>
@@ -1125,7 +1124,7 @@
       <c r="J7" s="41"/>
       <c r="K7" s="42"/>
     </row>
-    <row r="8" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="60" t="s">
         <v>15</v>
       </c>
@@ -1154,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="61"/>
       <c r="D9" s="59"/>
       <c r="E9" s="48"/>
@@ -1165,7 +1164,7 @@
       <c r="J9" s="44"/>
       <c r="K9" s="46"/>
     </row>
-    <row r="10" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C10" s="11">
         <v>1</v>
       </c>
@@ -1187,10 +1186,12 @@
       <c r="I10" s="25">
         <v>1</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7">
+        <v>6.0327539999999999E-2</v>
+      </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C11" s="13">
         <v>2</v>
       </c>
@@ -1212,13 +1213,15 @@
       <c r="I11" s="26">
         <v>1</v>
       </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="2" t="e">
+      <c r="J11" s="8">
+        <v>2.7529049999999999E-2</v>
+      </c>
+      <c r="K11" s="2">
         <f>LOG(J10/J11)/LOG(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.1318619293879624</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C12" s="15">
         <v>3</v>
       </c>
@@ -1240,13 +1243,15 @@
       <c r="I12" s="27">
         <v>1</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="3" t="e">
+      <c r="J12" s="9">
+        <v>1.309605E-2</v>
+      </c>
+      <c r="K12" s="3">
         <f t="shared" ref="K12:K14" si="0">LOG(J11/J12)/LOG(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.0718230897629208</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C13" s="13">
         <v>4</v>
       </c>
@@ -1268,13 +1273,15 @@
       <c r="I13" s="26">
         <v>1</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="4" t="e">
+      <c r="J13" s="8">
+        <v>6.3859099999999999E-3</v>
+      </c>
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.036167609564407</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C14" s="17">
         <v>5</v>
       </c>
@@ -1296,13 +1303,15 @@
       <c r="I14" s="28">
         <v>1</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="5" t="e">
+      <c r="J14" s="10">
+        <v>3.15321E-3</v>
+      </c>
+      <c r="K14" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+        <v>1.0180709654102837</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C15" s="19">
         <v>6</v>
       </c>
@@ -1327,7 +1336,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C16" s="13">
         <v>7</v>
       </c>
@@ -1355,7 +1364,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C17" s="15">
         <v>8</v>
       </c>
@@ -1383,7 +1392,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C18" s="13">
         <v>9</v>
       </c>
@@ -1411,7 +1420,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C19" s="17">
         <v>10</v>
       </c>
@@ -1439,7 +1448,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C20" s="19">
         <v>11</v>
       </c>
@@ -1464,7 +1473,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="13">
         <v>12</v>
       </c>
@@ -1492,7 +1501,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C22" s="15">
         <v>13</v>
       </c>
@@ -1520,7 +1529,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="23" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C23" s="13">
         <v>14</v>
       </c>
@@ -1548,7 +1557,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="3:11" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C24" s="17">
         <v>15</v>
       </c>

--- a/04-Poisson equation/poisson2D.xlsx
+++ b/04-Poisson equation/poisson2D.xlsx
@@ -1069,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="7">
-        <v>6.0327539999999999E-2</v>
+        <v>2.1633000000000001E-4</v>
       </c>
       <c r="K10" s="1"/>
     </row>
@@ -1214,11 +1214,11 @@
         <v>1</v>
       </c>
       <c r="J11" s="8">
-        <v>2.7529049999999999E-2</v>
+        <v>5.0250000000000002E-5</v>
       </c>
       <c r="K11" s="2">
         <f>LOG(J10/J11)/LOG(2)</f>
-        <v>1.1318619293879624</v>
+        <v>2.1060382464202285</v>
       </c>
     </row>
     <row r="12" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -1244,11 +1244,11 @@
         <v>1</v>
       </c>
       <c r="J12" s="9">
-        <v>1.309605E-2</v>
+        <v>1.199E-5</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" ref="K12:K14" si="0">LOG(J11/J12)/LOG(2)</f>
-        <v>1.0718230897629208</v>
+        <v>2.0672919375394292</v>
       </c>
     </row>
     <row r="13" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -1274,11 +1274,11 @@
         <v>1</v>
       </c>
       <c r="J13" s="8">
-        <v>6.3859099999999999E-3</v>
+        <v>2.9299999999999999E-6</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="0"/>
-        <v>1.036167609564407</v>
+        <v>2.0328590889919758</v>
       </c>
     </row>
     <row r="14" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -1304,11 +1304,11 @@
         <v>1</v>
       </c>
       <c r="J14" s="10">
-        <v>3.15321E-3</v>
+        <v>7.1999999999999999E-7</v>
       </c>
       <c r="K14" s="5">
         <f t="shared" si="0"/>
-        <v>1.0180709654102837</v>
+        <v>2.0248318529799358</v>
       </c>
     </row>
     <row r="15" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -1333,7 +1333,9 @@
       <c r="I15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="9"/>
+      <c r="J15" s="9">
+        <v>0.36701771</v>
+      </c>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -1358,10 +1360,12 @@
       <c r="I16" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="2" t="e">
+      <c r="J16" s="8">
+        <v>7.1722499999999995E-2</v>
+      </c>
+      <c r="K16" s="2">
         <f>LOG(J15/J16)/LOG(2)</f>
-        <v>#DIV/0!</v>
+        <v>2.3553519986801827</v>
       </c>
     </row>
     <row r="17" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -1386,10 +1390,12 @@
       <c r="I17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="3" t="e">
+      <c r="J17" s="9">
+        <v>1.6646640000000001E-2</v>
+      </c>
+      <c r="K17" s="3">
         <f t="shared" ref="K17:K19" si="1">LOG(J16/J17)/LOG(2)</f>
-        <v>#DIV/0!</v>
+        <v>2.1071947670187865</v>
       </c>
     </row>
     <row r="18" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -1414,10 +1420,12 @@
       <c r="I18" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="4" t="e">
+      <c r="J18" s="8">
+        <v>4.0459500000000004E-3</v>
+      </c>
+      <c r="K18" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.0406806132175186</v>
       </c>
     </row>
     <row r="19" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -1442,10 +1450,12 @@
       <c r="I19" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="5" t="e">
+      <c r="J19" s="10">
+        <v>9.9924999999999992E-4</v>
+      </c>
+      <c r="K19" s="5">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.017560918369234</v>
       </c>
     </row>
     <row r="20" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -1470,7 +1480,9 @@
       <c r="I20" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="9"/>
+      <c r="J20" s="9">
+        <v>0.59415191000000001</v>
+      </c>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -1495,10 +1507,12 @@
       <c r="I21" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="2" t="e">
+      <c r="J21" s="8">
+        <v>8.3829630000000002E-2</v>
+      </c>
+      <c r="K21" s="2">
         <f>LOG(J20/J21)/LOG(2)</f>
-        <v>#DIV/0!</v>
+        <v>2.8252996728337543</v>
       </c>
     </row>
     <row r="22" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -1523,10 +1537,12 @@
       <c r="I22" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="3" t="e">
+      <c r="J22" s="9">
+        <v>1.950872E-2</v>
+      </c>
+      <c r="K22" s="3">
         <f t="shared" ref="K22:K24" si="2">LOG(J21/J22)/LOG(2)</f>
-        <v>#DIV/0!</v>
+        <v>2.1033411384086667</v>
       </c>
     </row>
     <row r="23" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -1551,10 +1567,12 @@
       <c r="I23" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="4" t="e">
+      <c r="J23" s="8">
+        <v>4.7580299999999999E-3</v>
+      </c>
+      <c r="K23" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.0356828501140729</v>
       </c>
     </row>
     <row r="24" spans="3:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
@@ -1579,10 +1597,12 @@
       <c r="I24" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="10"/>
-      <c r="K24" s="5" t="e">
+      <c r="J24" s="10">
+        <v>1.17814E-3</v>
+      </c>
+      <c r="K24" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2.0138533813768147</v>
       </c>
     </row>
   </sheetData>
